--- a/biology/Écologie/Mangroves_de_Madagascar/Mangroves_de_Madagascar.xlsx
+++ b/biology/Écologie/Mangroves_de_Madagascar/Mangroves_de_Madagascar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les mangroves de Madagascar désignent une écorégion terrestre de l'écozone afrotropicale appartenant au biome des mangroves et qui est disséminée le long de la côte ouest de l'île de Madagascar (il y a quelques mangroves sur la côte est également). Elles font partie de la liste « Global 200 » qui regroupe les régions écologiques les plus représentatives de la biodiversité planétaire.
-La nécessité de sauvegarder ces écosystèmes amène à des expérimentations sociologiques où l'écotourisme tient une place vertueuse[1].
+La nécessité de sauvegarder ces écosystèmes amène à des expérimentations sociologiques où l'écotourisme tient une place vertueuse.
 </t>
         </is>
       </c>
